--- a/quanlysinhvien/danhsachhocphan/dsHocPhan.xlsx
+++ b/quanlysinhvien/danhsachhocphan/dsHocPhan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13035" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="3585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -231,22 +231,13 @@
   </si>
   <si>
     <t>Lý thuyết mạch điện II</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -280,10 +271,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -424,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -618,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,19 +618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,15 +647,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2">
         <v>5.5</v>
@@ -680,15 +667,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -700,15 +687,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1.5</v>
@@ -720,15 +707,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -740,15 +727,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -760,15 +747,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -780,15 +767,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -800,15 +787,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -820,15 +807,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -840,15 +827,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -860,15 +847,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -880,15 +867,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -900,15 +887,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>73</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -920,15 +907,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -940,15 +927,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -960,15 +947,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -980,15 +967,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>72</v>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1000,15 +987,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1020,15 +1007,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1.5</v>
@@ -1040,15 +1027,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1060,15 +1047,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>74</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1.5</v>
@@ -1080,15 +1067,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1.5</v>
@@ -1100,15 +1087,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1.5</v>
@@ -1120,15 +1107,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1.5</v>
@@ -1140,15 +1127,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>74</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1.5</v>
@@ -1160,15 +1147,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1.5</v>
@@ -1180,15 +1167,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
+      <c r="D28">
+        <v>3</v>
       </c>
       <c r="E28">
         <v>4.5</v>
@@ -1200,15 +1187,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>72</v>
+      <c r="D29">
+        <v>3</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1220,15 +1207,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
+      <c r="D30">
+        <v>3</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1240,15 +1227,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>72</v>
+      <c r="D31">
+        <v>3</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1260,15 +1247,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="E32">
         <v>3.5</v>
